--- a/artfynd/A 22913-2023.xlsx
+++ b/artfynd/A 22913-2023.xlsx
@@ -1405,7 +1405,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109996510</v>
+        <v>109996569</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1452,7 +1452,7 @@
         <v>6707072.796176627</v>
       </c>
       <c r="S8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
